--- a/rosters/2023/Utah/Utah.xlsx
+++ b/rosters/2023/Utah/Utah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -46,15 +46,9 @@
     <t>bbref url</t>
   </si>
   <si>
-    <t>Malik Beasley</t>
-  </si>
-  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Jarred Vanderbilt</t>
-  </si>
-  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
@@ -64,27 +58,21 @@
     <t>Kelly Olynyk</t>
   </si>
   <si>
+    <t>Collin Sexton</t>
+  </si>
+  <si>
     <t>Talen Horton-Tucker</t>
   </si>
   <si>
-    <t>Mike Conley</t>
-  </si>
-  <si>
-    <t>Collin Sexton</t>
-  </si>
-  <si>
-    <t>Nickeil Alexander-Walker</t>
-  </si>
-  <si>
     <t>Rudy Gay</t>
   </si>
   <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
     <t>Simone Fontecchio</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
     <t>Udoka Azubuike</t>
   </si>
   <si>
@@ -94,30 +82,36 @@
     <t>Micah Potter (TW)</t>
   </si>
   <si>
+    <t>Russell Westbrook</t>
+  </si>
+  <si>
+    <t>Juan Toscano-Anderson</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
     <t>Johnny Juzang (TW)</t>
   </si>
   <si>
     <t>SG</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-9</t>
-  </si>
-  <si>
     <t>7-1</t>
   </si>
   <si>
@@ -130,30 +124,27 @@
     <t>6-1</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>6-10</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>6-10</t>
+    <t>6-3</t>
   </si>
   <si>
     <t>6-7</t>
   </si>
   <si>
-    <t>November 26, 1996</t>
-  </si>
-  <si>
     <t>June 7, 1992</t>
   </si>
   <si>
-    <t>April 3, 1999</t>
-  </si>
-  <si>
     <t>July 26, 2001</t>
   </si>
   <si>
@@ -163,27 +154,21 @@
     <t>April 19, 1991</t>
   </si>
   <si>
+    <t>January 4, 1999</t>
+  </si>
+  <si>
     <t>November 25, 2000</t>
   </si>
   <si>
-    <t>October 11, 1987</t>
-  </si>
-  <si>
-    <t>January 4, 1999</t>
-  </si>
-  <si>
-    <t>September 2, 1998</t>
-  </si>
-  <si>
     <t>August 17, 1986</t>
   </si>
   <si>
+    <t>April 20, 2000</t>
+  </si>
+  <si>
     <t>December 9, 1995</t>
   </si>
   <si>
-    <t>April 20, 2000</t>
-  </si>
-  <si>
     <t>September 17, 1999</t>
   </si>
   <si>
@@ -193,6 +178,15 @@
     <t>April 6, 1998</t>
   </si>
   <si>
+    <t>November 12, 1988</t>
+  </si>
+  <si>
+    <t>April 10, 1993</t>
+  </si>
+  <si>
+    <t>June 30, 1995</t>
+  </si>
+  <si>
     <t>March 17, 2001</t>
   </si>
   <si>
@@ -214,48 +208,42 @@
     <t>ar</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Florida State</t>
-  </si>
-  <si>
     <t>Tulsa, Missouri</t>
   </si>
   <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
     <t>UNC, Auburn</t>
   </si>
   <si>
@@ -265,18 +253,12 @@
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>Alabama</t>
+  </si>
+  <si>
     <t>Iowa State</t>
   </si>
   <si>
-    <t>Ohio State</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Virginia Tech</t>
-  </si>
-  <si>
     <t>UConn</t>
   </si>
   <si>
@@ -286,18 +268,21 @@
     <t>Ohio State, Wisconsin</t>
   </si>
   <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
     <t>Kentucky, UCLA</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/beaslma01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/c/clarkjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/v/vandeja01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/k/kesslwa01.html</t>
   </si>
   <si>
@@ -307,27 +292,21 @@
     <t>https://www.basketball-reference.com/players/o/olynyke01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/sextoco01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/h/hortota01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/c/conlemi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/s/sextoco01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/a/alexani01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/g/gayru01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/a/agbajoc01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/f/fontesi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/agbajoc01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/a/azubuud01.html</t>
   </si>
   <si>
@@ -335,6 +314,15 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/pottemi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/w/westbru01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/toscaju01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jonesda03.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/juzanjo01.html</t>
@@ -708,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,34 +739,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -786,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -798,22 +786,22 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -821,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -833,22 +821,22 @@
         <v>33</v>
       </c>
       <c r="F4">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -856,34 +844,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
       </c>
       <c r="F5">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
         <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -891,34 +879,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -926,34 +914,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -961,34 +949,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -996,34 +984,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
       </c>
       <c r="F9">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1031,34 +1019,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1066,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1078,22 +1063,22 @@
         <v>38</v>
       </c>
       <c r="F11">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
         <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1101,34 +1086,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>39</v>
       </c>
       <c r="F12">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1136,110 +1118,104 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>83</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>30</v>
-      </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>40</v>
       </c>
       <c r="F14">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F15">
-        <v>280</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
@@ -1247,31 +1223,31 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>86</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>25</v>
-      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
@@ -1282,54 +1258,22 @@
         <v>41</v>
       </c>
       <c r="F17">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
         <v>58</v>
       </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
       <c r="I17" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18">
-        <v>215</v>
-      </c>
-      <c r="G18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" t="s">
-        <v>90</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1350,7 +1294,6 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
-    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Utah/Utah.xlsx
+++ b/rosters/2023/Utah/Utah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>No.</t>
   </si>
@@ -76,21 +76,18 @@
     <t>Udoka Azubuike</t>
   </si>
   <si>
-    <t>Leandro Bolmaro</t>
-  </si>
-  <si>
     <t>Micah Potter (TW)</t>
   </si>
   <si>
+    <t>Juan Toscano-Anderson</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
     <t>Russell Westbrook</t>
   </si>
   <si>
-    <t>Juan Toscano-Anderson</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
-  </si>
-  <si>
     <t>Johnny Juzang (TW)</t>
   </si>
   <si>
@@ -172,21 +169,18 @@
     <t>September 17, 1999</t>
   </si>
   <si>
-    <t>September 11, 2000</t>
-  </si>
-  <si>
     <t>April 6, 1998</t>
   </si>
   <si>
+    <t>April 10, 1993</t>
+  </si>
+  <si>
+    <t>June 30, 1995</t>
+  </si>
+  <si>
     <t>November 12, 1988</t>
   </si>
   <si>
-    <t>April 10, 1993</t>
-  </si>
-  <si>
-    <t>June 30, 1995</t>
-  </si>
-  <si>
     <t>March 17, 2001</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>ng</t>
   </si>
   <si>
-    <t>ar</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -235,12 +226,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>Tulsa, Missouri</t>
   </si>
   <si>
@@ -268,15 +259,15 @@
     <t>Ohio State, Wisconsin</t>
   </si>
   <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
     <t>UCLA</t>
   </si>
   <si>
-    <t>Marquette</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
     <t>Kentucky, UCLA</t>
   </si>
   <si>
@@ -310,19 +301,16 @@
     <t>https://www.basketball-reference.com/players/a/azubuud01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/bolmale01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/p/pottemi01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/t/toscaju01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jonesda03.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/w/westbru01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/toscaju01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jonesda03.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/j/juzanjo01.html</t>
@@ -696,7 +684,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -745,28 +733,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -780,28 +768,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>245</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -815,28 +803,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -850,28 +838,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5">
         <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -885,28 +873,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>190</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -920,28 +908,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>234</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -955,28 +943,28 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8">
         <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -990,28 +978,28 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9">
         <v>215</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1025,25 +1013,25 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1057,28 +1045,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
         <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1086,31 +1074,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,66 +1109,69 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
       </c>
       <c r="F13">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F14">
-        <v>200</v>
+        <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1188,28 +1182,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>39</v>
       </c>
       <c r="F15">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,57 +1217,25 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" t="s">
         <v>56</v>
       </c>
-      <c r="H16" t="s">
-        <v>58</v>
-      </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17">
-        <v>215</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1293,7 +1255,6 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
-    <hyperlink ref="K17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Utah/Utah.xlsx
+++ b/rosters/2023/Utah/Utah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <t>No.</t>
   </si>
@@ -46,27 +46,27 @@
     <t>bbref url</t>
   </si>
   <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
+    <t>Talen Horton-Tucker</t>
+  </si>
+  <si>
+    <t>Rudy Gay</t>
+  </si>
+  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Talen Horton-Tucker</t>
-  </si>
-  <si>
-    <t>Rudy Gay</t>
-  </si>
-  <si>
     <t>Ochai Agbaji</t>
   </si>
   <si>
@@ -76,27 +76,27 @@
     <t>Udoka Azubuike</t>
   </si>
   <si>
+    <t>Kris Dunn</t>
+  </si>
+  <si>
+    <t>Juan Toscano-Anderson</t>
+  </si>
+  <si>
+    <t>Damian Jones</t>
+  </si>
+  <si>
+    <t>Johnny Juzang (TW)</t>
+  </si>
+  <si>
     <t>Micah Potter (TW)</t>
   </si>
   <si>
-    <t>Juan Toscano-Anderson</t>
-  </si>
-  <si>
-    <t>Damian Jones</t>
-  </si>
-  <si>
-    <t>Russell Westbrook</t>
-  </si>
-  <si>
-    <t>Johnny Juzang (TW)</t>
+    <t>C</t>
   </si>
   <si>
     <t>SG</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>SF</t>
   </si>
   <si>
@@ -106,60 +106,60 @@
     <t>PG</t>
   </si>
   <si>
+    <t>7-1</t>
+  </si>
+  <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
     <t>7-0</t>
   </si>
   <si>
     <t>6-11</t>
   </si>
   <si>
+    <t>6-8</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-8</t>
-  </si>
-  <si>
     <t>6-5</t>
   </si>
   <si>
     <t>6-10</t>
   </si>
   <si>
+    <t>6-3</t>
+  </si>
+  <si>
     <t>6-6</t>
   </si>
   <si>
-    <t>6-3</t>
-  </si>
-  <si>
     <t>6-7</t>
   </si>
   <si>
+    <t>July 26, 2001</t>
+  </si>
+  <si>
     <t>June 7, 1992</t>
   </si>
   <si>
-    <t>July 26, 2001</t>
-  </si>
-  <si>
     <t>May 22, 1997</t>
   </si>
   <si>
     <t>April 19, 1991</t>
   </si>
   <si>
+    <t>November 25, 2000</t>
+  </si>
+  <si>
+    <t>August 17, 1986</t>
+  </si>
+  <si>
     <t>January 4, 1999</t>
   </si>
   <si>
-    <t>November 25, 2000</t>
-  </si>
-  <si>
-    <t>August 17, 1986</t>
-  </si>
-  <si>
     <t>April 20, 2000</t>
   </si>
   <si>
@@ -169,21 +169,21 @@
     <t>September 17, 1999</t>
   </si>
   <si>
+    <t>March 18, 1994</t>
+  </si>
+  <si>
+    <t>April 10, 1993</t>
+  </si>
+  <si>
+    <t>June 30, 1995</t>
+  </si>
+  <si>
+    <t>March 17, 2001</t>
+  </si>
+  <si>
     <t>April 6, 1998</t>
   </si>
   <si>
-    <t>April 10, 1993</t>
-  </si>
-  <si>
-    <t>June 30, 1995</t>
-  </si>
-  <si>
-    <t>November 12, 1988</t>
-  </si>
-  <si>
-    <t>March 17, 2001</t>
-  </si>
-  <si>
     <t>us</t>
   </si>
   <si>
@@ -199,99 +199,96 @@
     <t>ng</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t>UNC, Auburn</t>
   </si>
   <si>
     <t>Tulsa, Missouri</t>
   </si>
   <si>
-    <t>UNC, Auburn</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
     <t>Gonzaga</t>
   </si>
   <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
+    <t>UConn</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Iowa State</t>
-  </si>
-  <si>
-    <t>UConn</t>
-  </si>
-  <si>
     <t>Kansas</t>
   </si>
   <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Kentucky, UCLA</t>
+  </si>
+  <si>
     <t>Ohio State, Wisconsin</t>
   </si>
   <si>
-    <t>Marquette</t>
-  </si>
-  <si>
-    <t>Vanderbilt</t>
-  </si>
-  <si>
-    <t>UCLA</t>
-  </si>
-  <si>
-    <t>Kentucky, UCLA</t>
+    <t>https://www.basketball-reference.com/players/k/kesslwa01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/c/clarkjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/k/kesslwa01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/m/markkla01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/o/olynyke01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hortota01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/g/gayru01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/sextoco01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/h/hortota01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/g/gayru01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/a/agbajoc01.html</t>
   </si>
   <si>
@@ -301,19 +298,19 @@
     <t>https://www.basketball-reference.com/players/a/azubuud01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/d/dunnkr01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/t/toscaju01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/jonesda03.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/j/juzanjo01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/pottemi01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/t/toscaju01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/jonesda03.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/w/westbru01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/j/juzanjo01.html</t>
   </si>
 </sst>
 </file>
@@ -727,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -739,7 +736,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -751,10 +748,10 @@
         <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -762,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -774,7 +771,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
@@ -786,10 +783,10 @@
         <v>62</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -821,10 +818,10 @@
         <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -838,7 +835,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -856,10 +853,10 @@
         <v>64</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -867,19 +864,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -891,10 +888,10 @@
         <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -902,19 +899,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -926,10 +923,10 @@
         <v>66</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -937,19 +934,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="G8" t="s">
         <v>47</v>
@@ -961,10 +958,10 @@
         <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -978,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -993,13 +990,13 @@
         <v>56</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1016,7 +1013,7 @@
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10">
         <v>209</v>
@@ -1028,10 +1025,10 @@
         <v>59</v>
       </c>
       <c r="I10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1045,7 +1042,7 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>37</v>
@@ -1063,10 +1060,10 @@
         <v>68</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1074,19 +1071,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -1098,10 +1095,10 @@
         <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1118,7 +1115,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>209</v>
@@ -1130,13 +1127,13 @@
         <v>56</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1150,7 +1147,7 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -1165,30 +1162,33 @@
         <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>33</v>
+      </c>
       <c r="C15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
@@ -1197,30 +1197,33 @@
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
         <v>55</v>
@@ -1229,13 +1232,13 @@
         <v>56</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/rosters/2023/Utah/Utah.xlsx
+++ b/rosters/2023/Utah/Utah.xlsx
@@ -49,12 +49,12 @@
     <t>Walker Kessler</t>
   </si>
   <si>
+    <t>Lauri Markkanen</t>
+  </si>
+  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Lauri Markkanen</t>
-  </si>
-  <si>
     <t>Kelly Olynyk</t>
   </si>
   <si>
@@ -94,12 +94,12 @@
     <t>C</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
     <t>SG</t>
   </si>
   <si>
-    <t>SF</t>
-  </si>
-  <si>
     <t>PF</t>
   </si>
   <si>
@@ -109,12 +109,12 @@
     <t>7-1</t>
   </si>
   <si>
+    <t>7-0</t>
+  </si>
+  <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>7-0</t>
-  </si>
-  <si>
     <t>6-11</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>July 26, 2001</t>
   </si>
   <si>
+    <t>May 22, 1997</t>
+  </si>
+  <si>
     <t>June 7, 1992</t>
   </si>
   <si>
-    <t>May 22, 1997</t>
-  </si>
-  <si>
     <t>April 19, 1991</t>
   </si>
   <si>
@@ -202,12 +202,12 @@
     <t>R</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -232,12 +232,12 @@
     <t>UNC, Auburn</t>
   </si>
   <si>
+    <t>Arizona</t>
+  </si>
+  <si>
     <t>Tulsa, Missouri</t>
   </si>
   <si>
-    <t>Arizona</t>
-  </si>
-  <si>
     <t>Gonzaga</t>
   </si>
   <si>
@@ -271,10 +271,10 @@
     <t>https://www.basketball-reference.com/players/k/kesslwa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/m/markkla01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/clarkjo01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/m/markkla01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/o/olynyke01.html</t>
@@ -759,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -771,13 +771,13 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
         <v>62</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -806,13 +806,13 @@
         <v>32</v>
       </c>
       <c r="F4">
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="G4" t="s">
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
         <v>63</v>
@@ -870,10 +870,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>234</v>
@@ -940,7 +940,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -975,7 +975,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1010,7 +1010,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -1112,7 +1112,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
@@ -1182,7 +1182,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>

--- a/rosters/2023/Utah/Utah.xlsx
+++ b/rosters/2023/Utah/Utah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
   <si>
     <t>No.</t>
   </si>
@@ -64,12 +64,12 @@
     <t>Rudy Gay</t>
   </si>
   <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
     <t>Simone Fontecchio</t>
   </si>
   <si>
@@ -91,6 +91,9 @@
     <t>Micah Potter (TW)</t>
   </si>
   <si>
+    <t>Jarrell Brantley</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -121,12 +124,12 @@
     <t>6-8</t>
   </si>
   <si>
+    <t>6-5</t>
+  </si>
+  <si>
     <t>6-1</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-10</t>
   </si>
   <si>
@@ -157,12 +160,12 @@
     <t>August 17, 1986</t>
   </si>
   <si>
+    <t>April 20, 2000</t>
+  </si>
+  <si>
     <t>January 4, 1999</t>
   </si>
   <si>
-    <t>April 20, 2000</t>
-  </si>
-  <si>
     <t>December 9, 1995</t>
   </si>
   <si>
@@ -184,6 +187,9 @@
     <t>April 6, 1998</t>
   </si>
   <si>
+    <t>June 7, 1996</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
@@ -247,12 +253,12 @@
     <t>UConn</t>
   </si>
   <si>
+    <t>Kansas</t>
+  </si>
+  <si>
     <t>Alabama</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>Providence</t>
   </si>
   <si>
@@ -268,6 +274,9 @@
     <t>Ohio State, Wisconsin</t>
   </si>
   <si>
+    <t>College of Charleston</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/k/kesslwa01.html</t>
   </si>
   <si>
@@ -286,12 +295,12 @@
     <t>https://www.basketball-reference.com/players/g/gayru01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/a/agbajoc01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/s/sextoco01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/agbajoc01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/f/fontesi01.html</t>
   </si>
   <si>
@@ -311,6 +320,9 @@
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/p/pottemi01.html</t>
+  </si>
+  <si>
+    <t>https://www.basketball-reference.com/players/b/brantja01.html</t>
   </si>
 </sst>
 </file>
@@ -681,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,28 +742,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -765,28 +777,28 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -800,28 +812,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
         <v>194</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -835,28 +847,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5">
         <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -870,28 +882,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>234</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -905,28 +917,28 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7">
         <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -934,34 +946,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -969,34 +981,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1010,25 +1022,25 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1042,28 +1054,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1077,28 +1089,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12">
         <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1112,28 +1124,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1147,28 +1159,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14">
         <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1182,28 +1194,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F15">
         <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1217,28 +1229,60 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17">
+        <v>250</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" t="s">
         <v>70</v>
       </c>
-      <c r="J16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>98</v>
+      <c r="J17" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1258,6 +1302,7 @@
     <hyperlink ref="K14" r:id="rId13"/>
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
+    <hyperlink ref="K17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rosters/2023/Utah/Utah.xlsx
+++ b/rosters/2023/Utah/Utah.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>No.</t>
   </si>
@@ -49,30 +49,30 @@
     <t>Walker Kessler</t>
   </si>
   <si>
+    <t>Kelly Olynyk</t>
+  </si>
+  <si>
     <t>Lauri Markkanen</t>
   </si>
   <si>
+    <t>Talen Horton-Tucker</t>
+  </si>
+  <si>
     <t>Jordan Clarkson</t>
   </si>
   <si>
-    <t>Kelly Olynyk</t>
-  </si>
-  <si>
-    <t>Talen Horton-Tucker</t>
+    <t>Ochai Agbaji</t>
   </si>
   <si>
     <t>Rudy Gay</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
+    <t>Simone Fontecchio</t>
   </si>
   <si>
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Simone Fontecchio</t>
-  </si>
-  <si>
     <t>Udoka Azubuike</t>
   </si>
   <si>
@@ -88,10 +88,13 @@
     <t>Johnny Juzang (TW)</t>
   </si>
   <si>
+    <t>Luka Šamanić</t>
+  </si>
+  <si>
     <t>Micah Potter (TW)</t>
   </si>
   <si>
-    <t>Jarrell Brantley</t>
+    <t>Vernon Carey Jr.</t>
   </si>
   <si>
     <t>C</t>
@@ -112,21 +115,21 @@
     <t>7-1</t>
   </si>
   <si>
+    <t>6-11</t>
+  </si>
+  <si>
     <t>7-0</t>
   </si>
   <si>
     <t>6-4</t>
   </si>
   <si>
-    <t>6-11</t>
+    <t>6-5</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>6-5</t>
-  </si>
-  <si>
     <t>6-1</t>
   </si>
   <si>
@@ -142,33 +145,36 @@
     <t>6-7</t>
   </si>
   <si>
+    <t>6-9</t>
+  </si>
+  <si>
     <t>July 26, 2001</t>
   </si>
   <si>
+    <t>April 19, 1991</t>
+  </si>
+  <si>
     <t>May 22, 1997</t>
   </si>
   <si>
+    <t>November 25, 2000</t>
+  </si>
+  <si>
     <t>June 7, 1992</t>
   </si>
   <si>
-    <t>April 19, 1991</t>
-  </si>
-  <si>
-    <t>November 25, 2000</t>
+    <t>April 20, 2000</t>
   </si>
   <si>
     <t>August 17, 1986</t>
   </si>
   <si>
-    <t>April 20, 2000</t>
+    <t>December 9, 1995</t>
   </si>
   <si>
     <t>January 4, 1999</t>
   </si>
   <si>
-    <t>December 9, 1995</t>
-  </si>
-  <si>
     <t>September 17, 1999</t>
   </si>
   <si>
@@ -184,42 +190,48 @@
     <t>March 17, 2001</t>
   </si>
   <si>
+    <t>January 9, 2000</t>
+  </si>
+  <si>
     <t>April 6, 1998</t>
   </si>
   <si>
-    <t>June 7, 1996</t>
+    <t>February 25, 2001</t>
   </si>
   <si>
     <t>us</t>
   </si>
   <si>
+    <t>ca</t>
+  </si>
+  <si>
     <t>fi</t>
   </si>
   <si>
-    <t>ca</t>
-  </si>
-  <si>
     <t>it</t>
   </si>
   <si>
     <t>ng</t>
   </si>
   <si>
+    <t>hr</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -238,24 +250,24 @@
     <t>UNC, Auburn</t>
   </si>
   <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
     <t>Arizona</t>
   </si>
   <si>
+    <t>Iowa State</t>
+  </si>
+  <si>
     <t>Tulsa, Missouri</t>
   </si>
   <si>
-    <t>Gonzaga</t>
-  </si>
-  <si>
-    <t>Iowa State</t>
+    <t>Kansas</t>
   </si>
   <si>
     <t>UConn</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>Alabama</t>
   </si>
   <si>
@@ -274,36 +286,36 @@
     <t>Ohio State, Wisconsin</t>
   </si>
   <si>
-    <t>College of Charleston</t>
+    <t>Duke</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/k/kesslwa01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/o/olynyke01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/m/markkla01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/h/hortota01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/c/clarkjo01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/o/olynyke01.html</t>
-  </si>
-  <si>
-    <t>https://www.basketball-reference.com/players/h/hortota01.html</t>
+    <t>https://www.basketball-reference.com/players/a/agbajoc01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/g/gayru01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/a/agbajoc01.html</t>
+    <t>https://www.basketball-reference.com/players/f/fontesi01.html</t>
   </si>
   <si>
     <t>https://www.basketball-reference.com/players/s/sextoco01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/f/fontesi01.html</t>
-  </si>
-  <si>
     <t>https://www.basketball-reference.com/players/a/azubuud01.html</t>
   </si>
   <si>
@@ -319,10 +331,13 @@
     <t>https://www.basketball-reference.com/players/j/juzanjo01.html</t>
   </si>
   <si>
+    <t>https://www.basketball-reference.com/players/s/samanlu01.html</t>
+  </si>
+  <si>
     <t>https://www.basketball-reference.com/players/p/pottemi01.html</t>
   </si>
   <si>
-    <t>https://www.basketball-reference.com/players/b/brantja01.html</t>
+    <t>https://www.basketball-reference.com/players/c/careyve01.html</t>
   </si>
 </sst>
 </file>
@@ -693,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,28 +757,28 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>245</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -771,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -780,25 +795,25 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -806,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -815,25 +830,25 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -841,34 +856,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -882,28 +897,28 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -911,7 +926,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
@@ -920,25 +935,25 @@
         <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -946,34 +961,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -981,7 +996,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -993,22 +1008,19 @@
         <v>37</v>
       </c>
       <c r="F9">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1016,31 +1028,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
         <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1054,28 +1069,28 @@
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>280</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1089,28 +1104,28 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>205</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1124,28 +1139,28 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F13">
         <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1159,28 +1174,28 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>245</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1194,28 +1209,28 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15">
         <v>215</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1223,66 +1238,98 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
       <c r="C17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F17">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>270</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1303,6 +1350,7 @@
     <hyperlink ref="K15" r:id="rId14"/>
     <hyperlink ref="K16" r:id="rId15"/>
     <hyperlink ref="K17" r:id="rId16"/>
+    <hyperlink ref="K18" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
